--- a/课次记录.xlsx
+++ b/课次记录.xlsx
@@ -22,19 +22,19 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>3次课</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>胡美琳</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>1次课</t>
+    <t>朱学治</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>朱学治</t>
+    <t>2次课</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4次课</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -382,7 +382,7 @@
   <dimension ref="A1:B3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -392,12 +392,12 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="2" spans="1:2">
       <c r="A2" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B2" t="s">
         <v>3</v>
@@ -405,7 +405,7 @@
     </row>
     <row r="3" spans="1:2">
       <c r="A3" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B3" t="s">
         <v>3</v>

--- a/课次记录.xlsx
+++ b/课次记录.xlsx
@@ -382,7 +382,7 @@
   <dimension ref="A1:B3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -400,7 +400,7 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="3" spans="1:2">

--- a/课次记录.xlsx
+++ b/课次记录.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
   <si>
     <t>高一班级</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -30,11 +30,15 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>2次课</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>4次课</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>5次课</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3次课</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -382,7 +386,7 @@
   <dimension ref="A1:B3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -400,7 +404,7 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -408,7 +412,7 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
   </sheetData>

--- a/课次记录.xlsx
+++ b/课次记录.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
   <si>
     <t>高一班级</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -39,6 +39,18 @@
   </si>
   <si>
     <t>3次课</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>高二班级</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1次课</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4月15日开课</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -383,15 +395,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B3"/>
+  <dimension ref="A1:C4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
+  <cols>
+    <col min="3" max="3" width="11.375" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -399,7 +414,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:2">
+    <row r="2" spans="1:3">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -407,12 +422,23 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:2">
+    <row r="3" spans="1:3">
       <c r="A3" t="s">
         <v>2</v>
       </c>
       <c r="B3" t="s">
         <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
+      <c r="A4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C4" t="s">
+        <v>8</v>
       </c>
     </row>
   </sheetData>

--- a/课次记录.xlsx
+++ b/课次记录.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
   <si>
     <t>高一班级</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -30,10 +30,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>4次课</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>5次课</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -51,6 +47,14 @@
   </si>
   <si>
     <t>4月15日开课</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>6次课</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3月12日开课</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -398,7 +402,7 @@
   <dimension ref="A1:C4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -411,7 +415,10 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>4</v>
+        <v>8</v>
+      </c>
+      <c r="C1" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="2" spans="1:3">
@@ -427,18 +434,18 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="4" spans="1:3">
       <c r="A4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B4" t="s">
         <v>6</v>
       </c>
-      <c r="B4" t="s">
+      <c r="C4" t="s">
         <v>7</v>
-      </c>
-      <c r="C4" t="s">
-        <v>8</v>
       </c>
     </row>
   </sheetData>

--- a/课次记录.xlsx
+++ b/课次记录.xlsx
@@ -34,10 +34,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>3次课</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>高二班级</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -55,6 +51,10 @@
   </si>
   <si>
     <t>3月12日开课</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4次课</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -415,10 +415,10 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C1" t="s">
         <v>8</v>
-      </c>
-      <c r="C1" t="s">
-        <v>9</v>
       </c>
     </row>
     <row r="2" spans="1:3">
@@ -434,18 +434,18 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>4</v>
+        <v>9</v>
       </c>
     </row>
     <row r="4" spans="1:3">
       <c r="A4" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4" t="s">
         <v>5</v>
       </c>
-      <c r="B4" t="s">
+      <c r="C4" t="s">
         <v>6</v>
-      </c>
-      <c r="C4" t="s">
-        <v>7</v>
       </c>
     </row>
   </sheetData>

--- a/课次记录.xlsx
+++ b/课次记录.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
   <si>
     <t>高一班级</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -30,10 +30,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>5次课</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>高二班级</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -55,6 +51,14 @@
   </si>
   <si>
     <t>4次课</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>500+600</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>7次课</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -402,7 +406,7 @@
   <dimension ref="A1:C4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -415,10 +419,10 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C1" t="s">
         <v>7</v>
-      </c>
-      <c r="C1" t="s">
-        <v>8</v>
       </c>
     </row>
     <row r="2" spans="1:3">
@@ -426,7 +430,7 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -434,18 +438,21 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C3" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="4" spans="1:3">
       <c r="A4" t="s">
+        <v>3</v>
+      </c>
+      <c r="B4" t="s">
         <v>4</v>
       </c>
-      <c r="B4" t="s">
+      <c r="C4" t="s">
         <v>5</v>
-      </c>
-      <c r="C4" t="s">
-        <v>6</v>
       </c>
     </row>
   </sheetData>

--- a/课次记录.xlsx
+++ b/课次记录.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="10">
   <si>
     <t>高一班级</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -34,18 +34,10 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>1次课</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>4月15日开课</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>6次课</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>3月12日开课</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -59,6 +51,10 @@
   </si>
   <si>
     <t>7次课</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2次课</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -406,7 +402,7 @@
   <dimension ref="A1:C4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -419,10 +415,10 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C1" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="2" spans="1:3">
@@ -430,7 +426,7 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -438,10 +434,10 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C3" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -449,10 +445,10 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C4" t="s">
         <v>4</v>
-      </c>
-      <c r="C4" t="s">
-        <v>5</v>
       </c>
     </row>
   </sheetData>

--- a/课次记录.xlsx
+++ b/课次记录.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
   <si>
     <t>高一班级</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -55,6 +55,10 @@
   </si>
   <si>
     <t>2次课</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>8次课</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -402,7 +406,7 @@
   <dimension ref="A1:C4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -415,7 +419,7 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="C1" t="s">
         <v>5</v>

--- a/课次记录.xlsx
+++ b/课次记录.xlsx
@@ -58,7 +58,7 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>8次课</t>
+    <t>9次课</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -406,7 +406,7 @@
   <dimension ref="A1:C4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
